--- a/Entrega/EV6/ENLACES PARA RECOLECCIÓN DE DATOS.xlsx
+++ b/Entrega/EV6/ENLACES PARA RECOLECCIÓN DE DATOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - SENA\Documentos\complementario-3125033\05-Sesión\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - SENA\Documentos\complementario-3125033\Entrega\EV6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78E1B63-6C46-4C36-898F-CD8C1645A9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B2D70-DF99-4A7A-8232-748F8BA473EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="0" windowWidth="11796" windowHeight="12336" xr2:uid="{698FF71F-F062-43B8-8B91-476B46B78E55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{698FF71F-F062-43B8-8B91-476B46B78E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Investigación tendencias TI</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>Relación entre Python y Java</t>
+  </si>
+  <si>
+    <t>https://n9.cl/lqjbl</t>
+  </si>
+  <si>
+    <t>https://n9.cl/wr874</t>
+  </si>
+  <si>
+    <t>https://n9.cl/u6mi0</t>
+  </si>
+  <si>
+    <t>https://n9.cl/yk826</t>
+  </si>
+  <si>
+    <t>https://n9.cl/9jq7e</t>
   </si>
 </sst>
 </file>
@@ -175,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -183,22 +198,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBB8D5-EF66-4E96-A70A-5EF22B415F37}">
   <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,97 +561,107 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -653,6 +675,11 @@
     <hyperlink ref="C14" r:id="rId3" xr:uid="{2B99A0ED-4008-4FD4-943A-D21FA4FCD67F}"/>
     <hyperlink ref="C13" r:id="rId4" xr:uid="{FD1D5A61-AF2E-4814-8B9D-3C92EE0E35C3}"/>
     <hyperlink ref="C7" r:id="rId5" xr:uid="{711718CB-B312-4AB4-BDDE-39BB7C1DA39E}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{CA07BD78-9940-47D9-B6FA-D29DEE0362DE}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{46E8C125-B37C-47BE-BF5F-B8B30FAA2E10}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{2490564A-B656-49B1-9AFD-D0F2EC3BA807}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{416E31DB-B9A7-420A-A652-8792E15AF63F}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{67337199-F98A-4251-A467-88072CFE3ECE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
